--- a/match.xlsx
+++ b/match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>matching</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +446,12 @@
   <si>
     <t>holand-netherlands</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;=50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;50K</t>
   </si>
 </sst>
 </file>
@@ -488,8 +494,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -797,7 +806,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1279,7 +1288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>24</v>
       </c>
@@ -1299,7 +1308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -1313,7 +1322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -1327,7 +1336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O20" t="s">
         <v>83</v>
       </c>
@@ -1335,7 +1344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O21" t="s">
         <v>84</v>
       </c>
@@ -1343,7 +1352,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
       <c r="O22" t="s">
         <v>85</v>
       </c>
@@ -1351,7 +1366,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
       <c r="O23" t="s">
         <v>86</v>
       </c>
@@ -1359,7 +1380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O24" t="s">
         <v>87</v>
       </c>
@@ -1367,7 +1388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O25" t="s">
         <v>88</v>
       </c>
@@ -1375,7 +1396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O26" t="s">
         <v>89</v>
       </c>
@@ -1383,7 +1404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O27" t="s">
         <v>90</v>
       </c>
@@ -1391,7 +1412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O28" t="s">
         <v>91</v>
       </c>
@@ -1399,7 +1420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O29" t="s">
         <v>92</v>
       </c>
@@ -1407,7 +1428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O30" t="s">
         <v>93</v>
       </c>
@@ -1415,7 +1436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O31" t="s">
         <v>94</v>
       </c>
@@ -1423,7 +1444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="O32" t="s">
         <v>95</v>
       </c>
